--- a/final.xlsx
+++ b/final.xlsx
@@ -28,23 +28,17 @@
     <t>79</t>
   </si>
   <si>
-    <t>4.5 de 5</t>
+    <t>4.4 de 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0800"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -66,9 +60,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -82,24 +75,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
